--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H2">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J2">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>1.426008744589019</v>
+        <v>1.527279277266</v>
       </c>
       <c r="R2">
-        <v>1.426008744589019</v>
+        <v>13.745513495394</v>
       </c>
       <c r="S2">
-        <v>0.4316550918929233</v>
+        <v>0.4054990305037932</v>
       </c>
       <c r="T2">
-        <v>0.4316550918929233</v>
+        <v>0.4054990305037932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H3">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J3">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>0.2284614242384918</v>
+        <v>0.243981197676</v>
       </c>
       <c r="R3">
-        <v>0.2284614242384918</v>
+        <v>2.195830779084</v>
       </c>
       <c r="S3">
-        <v>0.06915563277424079</v>
+        <v>0.06477802756276207</v>
       </c>
       <c r="T3">
-        <v>0.06915563277424079</v>
+        <v>0.06477802756276209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.354587869953133</v>
+        <v>0.366566</v>
       </c>
       <c r="H4">
-        <v>0.354587869953133</v>
+        <v>1.099698</v>
       </c>
       <c r="I4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353526</v>
       </c>
       <c r="J4">
-        <v>0.5864066182715325</v>
+        <v>0.5689653834353527</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>0.2827732026638965</v>
+        <v>0.3717015896600001</v>
       </c>
       <c r="R4">
-        <v>0.2827732026638965</v>
+        <v>3.34531430694</v>
       </c>
       <c r="S4">
-        <v>0.08559589360436831</v>
+        <v>0.09868832536879742</v>
       </c>
       <c r="T4">
-        <v>0.08559589360436831</v>
+        <v>0.09868832536879742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H5">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I5">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J5">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>1.005765898051036</v>
+        <v>1.157030386785</v>
       </c>
       <c r="R5">
-        <v>1.005765898051036</v>
+        <v>10.413273481065</v>
       </c>
       <c r="S5">
-        <v>0.3044469206751676</v>
+        <v>0.3071964028377451</v>
       </c>
       <c r="T5">
-        <v>0.3044469206751676</v>
+        <v>0.3071964028377451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H6">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I6">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J6">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>0.1611341518003583</v>
+        <v>0.18483434151</v>
       </c>
       <c r="R6">
-        <v>0.1611341518003583</v>
+        <v>1.66350907359</v>
       </c>
       <c r="S6">
-        <v>0.0487755614167133</v>
+        <v>0.04907429008025377</v>
       </c>
       <c r="T6">
-        <v>0.0487755614167133</v>
+        <v>0.04907429008025377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.250091304709495</v>
+        <v>0.2777016666666667</v>
       </c>
       <c r="H7">
-        <v>0.250091304709495</v>
+        <v>0.833105</v>
       </c>
       <c r="I7">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="J7">
-        <v>0.4135933817284675</v>
+        <v>0.4310346165646473</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N7">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P7">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q7">
-        <v>0.1994403226496256</v>
+        <v>0.2815922670166667</v>
       </c>
       <c r="R7">
-        <v>0.1994403226496256</v>
+        <v>2.53433040315</v>
       </c>
       <c r="S7">
-        <v>0.06037089963658652</v>
+        <v>0.07476392364664843</v>
       </c>
       <c r="T7">
-        <v>0.06037089963658652</v>
+        <v>0.07476392364664841</v>
       </c>
     </row>
   </sheetData>
